--- a/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="203">
   <si>
     <t>shipmentType</t>
   </si>
@@ -623,6 +623,18 @@
   </si>
   <si>
     <t>51527648</t>
+  </si>
+  <si>
+    <t>51530506</t>
+  </si>
+  <si>
+    <t>51530507</t>
+  </si>
+  <si>
+    <t>51530508</t>
+  </si>
+  <si>
+    <t>51530509</t>
   </si>
 </sst>
 </file>
@@ -659,7 +671,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="238">
+  <fills count="246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1846,8 +1858,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="236">
+  <borders count="244">
     <border>
       <left/>
       <right/>
@@ -2736,12 +2788,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="139">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2876,7 +2956,11 @@
     <xf applyBorder="true" applyFill="true" borderId="229" fillId="231" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="231" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="233" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="237" borderId="235" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="239" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="245" borderId="243" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3458,8 +3542,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="131" t="s">
-        <v>195</v>
+      <c r="R2" s="135" t="s">
+        <v>199</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -3521,8 +3605,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="132" t="s">
-        <v>196</v>
+      <c r="R3" s="136" t="s">
+        <v>200</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -3584,8 +3668,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="133" t="s">
-        <v>197</v>
+      <c r="R4" s="137" t="s">
+        <v>201</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -3647,8 +3731,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="134" t="s">
-        <v>198</v>
+      <c r="R5" s="138" t="s">
+        <v>202</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="214">
   <si>
     <t>shipmentType</t>
   </si>
@@ -635,6 +635,39 @@
   </si>
   <si>
     <t>51530509</t>
+  </si>
+  <si>
+    <t>51531683</t>
+  </si>
+  <si>
+    <t>51531684</t>
+  </si>
+  <si>
+    <t>51531685</t>
+  </si>
+  <si>
+    <t>51531686</t>
+  </si>
+  <si>
+    <t>51532244</t>
+  </si>
+  <si>
+    <t>51532255</t>
+  </si>
+  <si>
+    <t>51532260</t>
+  </si>
+  <si>
+    <t>51532262</t>
+  </si>
+  <si>
+    <t>51532508</t>
+  </si>
+  <si>
+    <t>51532510</t>
+  </si>
+  <si>
+    <t>51532511</t>
   </si>
 </sst>
 </file>
@@ -671,7 +704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="246">
+  <fills count="268">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1898,8 +1931,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="244">
+  <borders count="266">
     <border>
       <left/>
       <right/>
@@ -2816,12 +2959,89 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2960,7 +3180,18 @@
     <xf applyBorder="true" applyFill="true" borderId="237" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="239" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="241" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="245" borderId="243" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="251" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="255" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="255" fillId="257" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="259" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="259" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="263" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="267" borderId="265" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3542,8 +3773,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="135" t="s">
-        <v>199</v>
+      <c r="R2" s="147" t="s">
+        <v>211</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -3605,8 +3836,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="136" t="s">
-        <v>200</v>
+      <c r="R3" s="144" t="s">
+        <v>208</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -3668,8 +3899,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="137" t="s">
-        <v>201</v>
+      <c r="R4" s="148" t="s">
+        <v>212</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -3731,8 +3962,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="138" t="s">
-        <v>202</v>
+      <c r="R5" s="149" t="s">
+        <v>213</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="218">
   <si>
     <t>shipmentType</t>
   </si>
@@ -668,6 +668,18 @@
   </si>
   <si>
     <t>51532511</t>
+  </si>
+  <si>
+    <t>51533185</t>
+  </si>
+  <si>
+    <t>51533186</t>
+  </si>
+  <si>
+    <t>51533187</t>
+  </si>
+  <si>
+    <t>51533188</t>
   </si>
 </sst>
 </file>
@@ -704,7 +716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="268">
+  <fills count="276">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2041,8 +2053,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="266">
+  <borders count="274">
     <border>
       <left/>
       <right/>
@@ -3036,12 +3088,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="154">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -3191,7 +3271,11 @@
     <xf applyBorder="true" applyFill="true" borderId="259" fillId="261" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="261" fillId="263" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="263" fillId="265" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="267" borderId="265" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="267" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="267" fillId="269" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="271" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="271" fillId="273" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="275" borderId="273" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3773,8 +3857,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="147" t="s">
-        <v>211</v>
+      <c r="R2" s="150" t="s">
+        <v>214</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>79</v>
@@ -3836,8 +3920,8 @@
       <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="144" t="s">
-        <v>208</v>
+      <c r="R3" s="151" t="s">
+        <v>215</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>80</v>
@@ -3899,8 +3983,8 @@
       <c r="Q4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="148" t="s">
-        <v>212</v>
+      <c r="R4" s="152" t="s">
+        <v>216</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>80</v>
@@ -3962,8 +4046,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="149" t="s">
-        <v>213</v>
+      <c r="R5" s="153" t="s">
+        <v>217</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>80</v>

--- a/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\qa\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D6D4A3-07EE-4F6B-9CB7-4B9D1DEEA097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2594AFDC-66A4-423E-A862-4659AA215158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="449" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,9 +268,6 @@
     <t>Ceva</t>
   </si>
   <si>
-    <t>ABF Freight, BTX Global Logistics, Ceva,FC Test Carrier, UPS, FragilePAK</t>
-  </si>
-  <si>
     <t>51539017</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>51539020</t>
+  </si>
+  <si>
+    <t>ABF Freight, Ceva, FC Test Carrier, UPS, FragilePAK</t>
   </si>
 </sst>
 </file>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,10 +1061,10 @@
         <v>33</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>21</v>
@@ -1187,7 +1187,7 @@
         <v>33</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>79</v>
@@ -1250,7 +1250,7 @@
         <v>33</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>79</v>

--- a/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\qa\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2594AFDC-66A4-423E-A862-4659AA215158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2594AFDC-66A4-423E-A862-4659AA215158}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="449" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="449" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="ShipmentInformation" sheetId="4" r:id="rId1"/>
-    <sheet name="Input" sheetId="1" r:id="rId2"/>
+    <sheet name="ShipmentInformation" r:id="rId1" sheetId="4"/>
+    <sheet name="Input" r:id="rId2" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
   <si>
     <t>shipmentType</t>
   </si>
@@ -278,12 +278,16 @@
   </si>
   <si>
     <t>ABF Freight, Ceva, FC Test Carrier, UPS, FragilePAK</t>
+  </si>
+  <si>
+    <t>51545989</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +364,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -452,40 +466,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="22">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -502,10 +524,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -669,21 +691,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -700,7 +722,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -752,15 +774,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA6E395-F4B1-4839-A4C2-44ADA85EDD58}">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA6E395-F4B1-4839-A4C2-44ADA85EDD58}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
@@ -768,19 +790,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -903,15 +925,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{DECF9AC8-B3B3-45B8-824D-56B335DD5431}"/>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{DECF9AC8-B3B3-45B8-824D-56B335DD5431}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
@@ -919,30 +941,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="9.140625" style="1" collapsed="1"/>
-    <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="69.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" style="1" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="18.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
+    <col min="16" max="17" style="1" width="9.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="69.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="13.5703125" collapsed="true"/>
+    <col min="22" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1033,7 @@
       </c>
       <c r="W1" s="6"/>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1060,8 +1082,8 @@
       <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>80</v>
+      <c r="R2" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>83</v>
@@ -1074,7 +1096,7 @@
       </c>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="3" s="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -1137,7 +1159,7 @@
       </c>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1200,7 +1222,7 @@
       </c>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="5" s="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1263,7 +1285,7 @@
       </c>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="6" s="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1317,7 +1339,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1364,7 +1386,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1419,7 +1441,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
+++ b/testdata/FCfiles/qa/QuickQuote/QA_517.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
   <si>
     <t>shipmentType</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>51545989</t>
+  </si>
+  <si>
+    <t>51546555</t>
   </si>
 </sst>
 </file>
@@ -317,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,8 +377,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -473,12 +486,19 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -500,7 +520,8 @@
     <xf applyBorder="1" applyFill="1" borderId="5" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="6" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1271,8 +1292,8 @@
       <c r="Q5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="20" t="s">
-        <v>82</v>
+      <c r="R5" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>79</v>
